--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.0568784966748</v>
+        <v>188.629563968977</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2097088506618</v>
+        <v>258.0912911712788</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0065366376118</v>
+        <v>233.4594205753694</v>
       </c>
       <c r="AD2" t="n">
-        <v>147056.8784966748</v>
+        <v>188629.563968977</v>
       </c>
       <c r="AE2" t="n">
-        <v>201209.7088506618</v>
+        <v>258091.2911712788</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>4.059326863876444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>182006.5366376117</v>
+        <v>233459.4205753694</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.9692662782139</v>
+        <v>152.541862241965</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.8330457403002</v>
+        <v>208.7145055913688</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.3423129539054</v>
+        <v>188.7950861104365</v>
       </c>
       <c r="AD3" t="n">
-        <v>110969.2662782139</v>
+        <v>152541.862241965</v>
       </c>
       <c r="AE3" t="n">
-        <v>151833.0457403001</v>
+        <v>208714.5055913688</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.918505502901905e-06</v>
+        <v>4.933878357811564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>137342.3129539054</v>
+        <v>188795.0861104365</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.9299172460368</v>
+        <v>137.0881185137583</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.9379860740902</v>
+        <v>187.5700116513906</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.1053081049592</v>
+        <v>169.6685929955995</v>
       </c>
       <c r="AD4" t="n">
-        <v>105929.9172460368</v>
+        <v>137088.1185137583</v>
       </c>
       <c r="AE4" t="n">
-        <v>144937.9860740901</v>
+        <v>187570.0116513906</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.127248612530823e-06</v>
+        <v>5.286768941679352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>131105.3081049593</v>
+        <v>169668.5929955995</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.2091777377845</v>
+        <v>134.367379005506</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.2153502483454</v>
+        <v>183.8473758256459</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.7379554176703</v>
+        <v>166.3012403083105</v>
       </c>
       <c r="AD5" t="n">
-        <v>103209.1777377845</v>
+        <v>134367.379005506</v>
       </c>
       <c r="AE5" t="n">
-        <v>141215.3502483454</v>
+        <v>183847.3758256459</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.230161323070228e-06</v>
+        <v>5.460747984983955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>127737.9554176703</v>
+        <v>166301.2403083105</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.1100220029976</v>
+        <v>132.2682232707191</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.3431927637964</v>
+        <v>180.9752183410968</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.1399126123473</v>
+        <v>163.7031975029875</v>
       </c>
       <c r="AD6" t="n">
-        <v>101110.0220029976</v>
+        <v>132268.2232707191</v>
       </c>
       <c r="AE6" t="n">
-        <v>138343.1927637964</v>
+        <v>180975.2183410968</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.284967184795454e-06</v>
+        <v>5.553400013489106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>125139.9126123473</v>
+        <v>163703.1975029875</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.9174451862358</v>
+        <v>132.0756464539573</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.0797006672135</v>
+        <v>180.711726244514</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.9015678316487</v>
+        <v>163.464852722289</v>
       </c>
       <c r="AD7" t="n">
-        <v>100917.4451862358</v>
+        <v>132075.6464539573</v>
       </c>
       <c r="AE7" t="n">
-        <v>138079.7006672135</v>
+        <v>180711.726244514</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.282913132056178e-06</v>
+        <v>5.549927535419067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>124901.5678316487</v>
+        <v>163464.852722289</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9902333739423</v>
+        <v>162.3525047493823</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.9124191314214</v>
+        <v>222.1378594850113</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9825321126164</v>
+        <v>200.9373339482695</v>
       </c>
       <c r="AD2" t="n">
-        <v>121990.2333739423</v>
+        <v>162352.5047493823</v>
       </c>
       <c r="AE2" t="n">
-        <v>166912.4191314214</v>
+        <v>222137.8594850113</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.757574467307248e-06</v>
+        <v>4.775542664947677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150982.5321126163</v>
+        <v>200937.3339482695</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1832150130289</v>
+        <v>131.3696671985883</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.4433386691688</v>
+        <v>179.745774281712</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.2305007330667</v>
+        <v>162.5910898590944</v>
       </c>
       <c r="AD3" t="n">
-        <v>101183.2150130289</v>
+        <v>131369.6671985883</v>
       </c>
       <c r="AE3" t="n">
-        <v>138443.3386691688</v>
+        <v>179745.774281712</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.240165694287534e-06</v>
+        <v>5.61128981212237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>125230.5007330667</v>
+        <v>162591.0898590944</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.31999642521551</v>
+        <v>127.5064486107749</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.1575125641497</v>
+        <v>174.4599481766928</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.4491464528054</v>
+        <v>157.809735578833</v>
       </c>
       <c r="AD4" t="n">
-        <v>97319.9964252155</v>
+        <v>127506.4486107749</v>
       </c>
       <c r="AE4" t="n">
-        <v>133157.5125641497</v>
+        <v>174459.9481766929</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.414937799805563e-06</v>
+        <v>5.913958572817377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>120449.1464528054</v>
+        <v>157809.735578833</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.09969500065043</v>
+        <v>125.2912846669472</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.4371570334186</v>
+        <v>171.4290631426132</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.3245581867556</v>
+        <v>155.0681139585311</v>
       </c>
       <c r="AD5" t="n">
-        <v>85099.69500065043</v>
+        <v>125291.2846669472</v>
       </c>
       <c r="AE5" t="n">
-        <v>116437.1570334186</v>
+        <v>171429.0631426132</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.49288258518995e-06</v>
+        <v>6.048942651226259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>105324.5581867556</v>
+        <v>155068.1139585311</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.21083080836011</v>
+        <v>125.4024204746569</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.5892179484927</v>
+        <v>171.5811240576873</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.4621066215139</v>
+        <v>155.2056623932894</v>
       </c>
       <c r="AD6" t="n">
-        <v>85210.83080836012</v>
+        <v>125402.4204746568</v>
       </c>
       <c r="AE6" t="n">
-        <v>116589.2179484927</v>
+        <v>171581.1240576873</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493148196292561e-06</v>
+        <v>6.049402634145248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>105462.1066215139</v>
+        <v>155205.6623932894</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.44063058586777</v>
+        <v>109.7314113275855</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4847107395008</v>
+        <v>150.1393579865449</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.89459097772523</v>
+        <v>135.8102683822624</v>
       </c>
       <c r="AD2" t="n">
-        <v>73440.63058586777</v>
+        <v>109731.4113275855</v>
       </c>
       <c r="AE2" t="n">
-        <v>100484.7107395008</v>
+        <v>150139.3579865449</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.91770219432085e-06</v>
+        <v>7.413135600891507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>90894.59097772522</v>
+        <v>135810.2683822624</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.61719892491718</v>
+        <v>99.9632957630629</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.35805521374772</v>
+        <v>136.7741913323273</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.87546187407871</v>
+        <v>123.7206544753898</v>
       </c>
       <c r="AD3" t="n">
-        <v>72617.19892491717</v>
+        <v>99963.2957630629</v>
       </c>
       <c r="AE3" t="n">
-        <v>99358.05521374772</v>
+        <v>136774.1913323273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997779572359127e-06</v>
+        <v>7.56465923196845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>89875.46187407871</v>
+        <v>123720.6544753898</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.55664439297954</v>
+        <v>120.9612853838759</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.6400841693873</v>
+        <v>165.5045670974317</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.5537322767688</v>
+        <v>149.7090435008175</v>
       </c>
       <c r="AD2" t="n">
-        <v>92556.64439297954</v>
+        <v>120961.2853838759</v>
       </c>
       <c r="AE2" t="n">
-        <v>126640.0841693873</v>
+        <v>165504.5670974317</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448084409404951e-06</v>
+        <v>6.281660956962532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>114553.7322767688</v>
+        <v>149709.0435008175</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.11421082993108</v>
+        <v>105.6041031668481</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5110652963479</v>
+        <v>144.4921928770416</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.4412373102014</v>
+        <v>130.7020607849623</v>
       </c>
       <c r="AD3" t="n">
-        <v>77114.21082993108</v>
+        <v>105604.1031668481</v>
       </c>
       <c r="AE3" t="n">
-        <v>105511.0652963479</v>
+        <v>144492.1928770416</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.817615003886702e-06</v>
+        <v>6.954865447382695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>95441.2373102014</v>
+        <v>130702.0607849623</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.25011514322404</v>
+        <v>105.740007480141</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.6970155734704</v>
+        <v>144.6781431541641</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.60944075385824</v>
+        <v>130.8702642286191</v>
       </c>
       <c r="AD4" t="n">
-        <v>77250.11514322403</v>
+        <v>105740.007480141</v>
       </c>
       <c r="AE4" t="n">
-        <v>105697.0155734704</v>
+        <v>144678.1431541641</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.816687053175113e-06</v>
+        <v>6.953174922713672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>95609.44075385823</v>
+        <v>130870.2642286191</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.06063752128954</v>
+        <v>104.1005556804151</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.49181099689146</v>
+        <v>142.4349728742714</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.47364517546102</v>
+        <v>128.8411789719294</v>
       </c>
       <c r="AD2" t="n">
-        <v>69060.63752128954</v>
+        <v>104100.5556804151</v>
       </c>
       <c r="AE2" t="n">
-        <v>94491.81099689147</v>
+        <v>142434.9728742714</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082883129886552e-06</v>
+        <v>8.001135427723752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>85473.64517546102</v>
+        <v>128841.1789719294</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.597792324001</v>
+        <v>166.3006182840647</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.8484404411575</v>
+        <v>227.5398426016373</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4474664763022</v>
+        <v>205.8237593779774</v>
       </c>
       <c r="AD2" t="n">
-        <v>125597.792324001</v>
+        <v>166300.6182840648</v>
       </c>
       <c r="AE2" t="n">
-        <v>171848.4404411575</v>
+        <v>227539.8426016373</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659985728967882e-06</v>
+        <v>4.576455458346999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>155447.4664763022</v>
+        <v>205823.7593779774</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.6354631550429</v>
+        <v>134.2479234796624</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.7986127626235</v>
+        <v>183.683931505181</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.2655521761999</v>
+        <v>166.1533948843951</v>
       </c>
       <c r="AD3" t="n">
-        <v>103635.4631550429</v>
+        <v>134247.9234796624</v>
       </c>
       <c r="AE3" t="n">
-        <v>141798.6127626235</v>
+        <v>183683.931505181</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157864111077345e-06</v>
+        <v>5.433045858281935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>128265.5521761999</v>
+        <v>166153.3948843951</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.83444976902562</v>
+        <v>130.2763178930529</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.5978985590014</v>
+        <v>178.2498055267121</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.5611868369217</v>
+        <v>161.2378942624659</v>
       </c>
       <c r="AD4" t="n">
-        <v>99834.44976902562</v>
+        <v>130276.3178930529</v>
       </c>
       <c r="AE4" t="n">
-        <v>136597.8985590014</v>
+        <v>178249.8055267121</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.324437763767144e-06</v>
+        <v>5.719632697364272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>123561.1868369217</v>
+        <v>161237.8942624659</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.10439571512266</v>
+        <v>127.5462638391499</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.8625181609688</v>
+        <v>174.5144251286794</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.1823059014367</v>
+        <v>157.8590133269809</v>
       </c>
       <c r="AD5" t="n">
-        <v>97104.39571512266</v>
+        <v>127546.2638391499</v>
       </c>
       <c r="AE5" t="n">
-        <v>132862.5181609688</v>
+        <v>174514.4251286794</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>5.892918720306026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>120182.3059014367</v>
+        <v>157859.0133269809</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.08918781050964</v>
+        <v>127.5310559345369</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.8417100349519</v>
+        <v>174.4936170026625</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.1634836737625</v>
+        <v>157.8401910993067</v>
       </c>
       <c r="AD6" t="n">
-        <v>97089.18781050964</v>
+        <v>127531.0559345369</v>
       </c>
       <c r="AE6" t="n">
-        <v>132841.7100349519</v>
+        <v>174493.6170026625</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.425157273057672e-06</v>
+        <v>5.892918720306026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>120163.4836737625</v>
+        <v>157840.1910993067</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.79158406396699</v>
+        <v>101.5587591667099</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.701389004982</v>
+        <v>138.9571747480737</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.80427398418624</v>
+        <v>125.6952970177745</v>
       </c>
       <c r="AD2" t="n">
-        <v>75791.58406396699</v>
+        <v>101558.7591667099</v>
       </c>
       <c r="AE2" t="n">
-        <v>103701.389004982</v>
+        <v>138957.1747480737</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.107756014971502e-06</v>
+        <v>8.23465571997887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>93804.27398418623</v>
+        <v>125695.2970177745</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.0765743363041</v>
+        <v>141.5194190777996</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.3481134763621</v>
+        <v>193.6331125782924</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.7127847516491</v>
+        <v>175.1530400796553</v>
       </c>
       <c r="AD2" t="n">
-        <v>112076.5743363041</v>
+        <v>141519.4190777996</v>
       </c>
       <c r="AE2" t="n">
-        <v>153348.1134763621</v>
+        <v>193633.1125782924</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066354931818382e-06</v>
+        <v>5.430742435579244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH2" t="n">
-        <v>138712.7847516491</v>
+        <v>175153.0400796553</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.78964832623031</v>
+        <v>123.1471522131542</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.3271345471546</v>
+        <v>168.4953665268872</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0797729342726</v>
+        <v>152.4144052303401</v>
       </c>
       <c r="AD3" t="n">
-        <v>93789.64832623031</v>
+        <v>123147.1522131542</v>
       </c>
       <c r="AE3" t="n">
-        <v>128327.1345471546</v>
+        <v>168495.3665268872</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.525783238614835e-06</v>
+        <v>6.244424105608954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>116079.7729342726</v>
+        <v>152414.4052303401</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.38325946634932</v>
+        <v>110.8260146992938</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.3521659778261</v>
+        <v>151.637042610208</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.7248715406775</v>
+        <v>137.1650160874572</v>
       </c>
       <c r="AD4" t="n">
-        <v>81383.25946634932</v>
+        <v>110826.0146992938</v>
       </c>
       <c r="AE4" t="n">
-        <v>111352.1659778261</v>
+        <v>151637.042610208</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644577312636227e-06</v>
+        <v>6.454817237920204e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>100724.8715406775</v>
+        <v>137165.0160874572</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.54037277687213</v>
+        <v>110.9831280098166</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.5671353406334</v>
+        <v>151.8520119730153</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.9193245292099</v>
+        <v>137.3594690759896</v>
       </c>
       <c r="AD5" t="n">
-        <v>81540.37277687213</v>
+        <v>110983.1280098166</v>
       </c>
       <c r="AE5" t="n">
-        <v>111567.1353406334</v>
+        <v>151852.0119730153</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.641766060203889e-06</v>
+        <v>6.449838300967079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>100919.3245292099</v>
+        <v>137359.4690759896</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7090523008165</v>
+        <v>158.5472268755263</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4229624316803</v>
+        <v>216.9313104209925</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.921542859305</v>
+        <v>196.2276906194815</v>
       </c>
       <c r="AD2" t="n">
-        <v>118709.0523008165</v>
+        <v>158547.2268755263</v>
       </c>
       <c r="AE2" t="n">
-        <v>162422.9624316803</v>
+        <v>216931.3104209925</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.854213142302908e-06</v>
+        <v>4.977498492555618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.413194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>146921.542859305</v>
+        <v>196227.6906194815</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.75909701243037</v>
+        <v>128.6804207478863</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1265534762132</v>
+        <v>176.0662286466833</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2302648637884</v>
+        <v>159.2627148951969</v>
       </c>
       <c r="AD3" t="n">
-        <v>98759.09701243037</v>
+        <v>128680.4207478863</v>
       </c>
       <c r="AE3" t="n">
-        <v>135126.5534762132</v>
+        <v>176066.2286466833</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.329517194345444e-06</v>
+        <v>5.806387256146147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122230.2648637885</v>
+        <v>159262.7148951969</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.89908499540712</v>
+        <v>124.8204087308631</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.845114742813</v>
+        <v>170.7847899132831</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.4528792305565</v>
+        <v>154.4853292619649</v>
       </c>
       <c r="AD4" t="n">
-        <v>94899.08499540712</v>
+        <v>124820.4087308631</v>
       </c>
       <c r="AE4" t="n">
-        <v>129845.114742813</v>
+        <v>170784.7899132831</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.511238908688594e-06</v>
+        <v>6.12329405816509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.024305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>117452.8792305565</v>
+        <v>154485.3292619649</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.18398202193286</v>
+        <v>124.0220670880916</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.1842381375324</v>
+        <v>169.6924636572962</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.1912161118096</v>
+        <v>153.4972530907596</v>
       </c>
       <c r="AD5" t="n">
-        <v>84183.98202193287</v>
+        <v>124022.0670880916</v>
       </c>
       <c r="AE5" t="n">
-        <v>115184.2381375324</v>
+        <v>169692.4636572962</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529593898749009e-06</v>
+        <v>6.155303558087325e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>104191.2161118096</v>
+        <v>153497.2530907596</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.3070547119278</v>
+        <v>184.5715046613041</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.0790345178236</v>
+        <v>252.5388753975821</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.3655266621514</v>
+        <v>228.4369195702481</v>
       </c>
       <c r="AD2" t="n">
-        <v>143307.0547119278</v>
+        <v>184571.5046613041</v>
       </c>
       <c r="AE2" t="n">
-        <v>196079.0345178236</v>
+        <v>252538.8753975821</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482238210640708e-06</v>
+        <v>4.219640444329373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>177365.5266621514</v>
+        <v>228436.9195702481</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4947417874608</v>
+        <v>149.759102228286</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.4472921637375</v>
+        <v>204.9070105739477</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2796909467539</v>
+        <v>185.350973073624</v>
       </c>
       <c r="AD3" t="n">
-        <v>108494.7417874607</v>
+        <v>149759.102228286</v>
       </c>
       <c r="AE3" t="n">
-        <v>148447.2921637375</v>
+        <v>204907.0105739477</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994774368407906e-06</v>
+        <v>5.090917943493088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134279.6909467539</v>
+        <v>185350.973073624</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1339801364134</v>
+        <v>135.0610047619405</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.4807056895512</v>
+        <v>184.7964251862078</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8825471115053</v>
+        <v>167.1597137298997</v>
       </c>
       <c r="AD4" t="n">
-        <v>104133.9801364134</v>
+        <v>135061.0047619405</v>
       </c>
       <c r="AE4" t="n">
-        <v>142480.7056895512</v>
+        <v>184796.4251862078</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183422684280905e-06</v>
+        <v>5.411607577549949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>128882.5471115053</v>
+        <v>167159.7137298998</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.1615837445615</v>
+        <v>132.0886083700886</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.4137418133476</v>
+        <v>180.7294613100042</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.2037285596256</v>
+        <v>163.4808951780201</v>
       </c>
       <c r="AD5" t="n">
-        <v>101161.5837445615</v>
+        <v>132088.6083700886</v>
       </c>
       <c r="AE5" t="n">
-        <v>138413.7418133476</v>
+        <v>180729.4613100042</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286311071074696e-06</v>
+        <v>5.5865110160297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>125203.7285596256</v>
+        <v>163480.8951780201</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.63194838433778</v>
+        <v>130.5589730098649</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.3208272307411</v>
+        <v>178.6365467273977</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.3105588073584</v>
+        <v>161.5877254257528</v>
       </c>
       <c r="AD6" t="n">
-        <v>99631.94838433778</v>
+        <v>130558.9730098649</v>
       </c>
       <c r="AE6" t="n">
-        <v>136320.8272307411</v>
+        <v>178636.5467273977</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.338637568268703e-06</v>
+        <v>5.675462593248765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>123310.5588073584</v>
+        <v>161587.7254257528</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.77080096428614</v>
+        <v>130.6978255898132</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.5108114563699</v>
+        <v>178.8265309530265</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.4824112051377</v>
+        <v>161.7595778235322</v>
       </c>
       <c r="AD7" t="n">
-        <v>99770.80096428614</v>
+        <v>130697.8255898132</v>
       </c>
       <c r="AE7" t="n">
-        <v>136510.8114563699</v>
+        <v>178826.5309530265</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.334943656371465e-06</v>
+        <v>5.669183187842563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>123482.4112051377</v>
+        <v>161759.5778235322</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.5602143546627</v>
+        <v>133.9074589447065</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.7497010991149</v>
+        <v>183.2180929082193</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.2711331346081</v>
+        <v>165.7320152693188</v>
       </c>
       <c r="AD2" t="n">
-        <v>95560.2143546627</v>
+        <v>133907.4589447065</v>
       </c>
       <c r="AE2" t="n">
-        <v>130749.7010991149</v>
+        <v>183218.0929082193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323427157726604e-06</v>
+        <v>5.992925620992466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>118271.1331346081</v>
+        <v>165732.0152693188</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.08596396402125</v>
+        <v>107.9104030474828</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.2089049220177</v>
+        <v>147.6477741204943</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.88159890843983</v>
+        <v>133.5564777834269</v>
       </c>
       <c r="AD3" t="n">
-        <v>79085.96396402124</v>
+        <v>107910.4030474828</v>
       </c>
       <c r="AE3" t="n">
-        <v>108208.9049220177</v>
+        <v>147647.7741204943</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.732546190147811e-06</v>
+        <v>6.730664050352197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>97881.59890843983</v>
+        <v>133556.4777834269</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.7755390174558</v>
+        <v>107.5999781009174</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.784167815145</v>
+        <v>147.2230370136216</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.49739811492464</v>
+        <v>133.1722769899118</v>
       </c>
       <c r="AD4" t="n">
-        <v>78775.5390174558</v>
+        <v>107599.9781009174</v>
       </c>
       <c r="AE4" t="n">
-        <v>107784.167815145</v>
+        <v>147223.0370136216</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.744585840638399e-06</v>
+        <v>6.752374389248927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>97497.39811492464</v>
+        <v>133172.2769899117</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.99017412142965</v>
+        <v>113.6600842738375</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.6555498516343</v>
+        <v>155.5147416324222</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4266693044262</v>
+        <v>140.6726329573771</v>
       </c>
       <c r="AD2" t="n">
-        <v>85990.17412142965</v>
+        <v>113660.0842738374</v>
       </c>
       <c r="AE2" t="n">
-        <v>117655.5498516343</v>
+        <v>155514.7416324222</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750280352017062e-06</v>
+        <v>6.996824386984265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>106426.6693044262</v>
+        <v>140672.6329573772</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.1593766232041</v>
+        <v>101.9145381216324</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4681307766211</v>
+        <v>139.4439672100582</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.78415478674178</v>
+        <v>126.1356306904049</v>
       </c>
       <c r="AD3" t="n">
-        <v>74159.37662320409</v>
+        <v>101914.5381216324</v>
       </c>
       <c r="AE3" t="n">
-        <v>101468.1307766211</v>
+        <v>139443.9672100582</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.937631305880828e-06</v>
+        <v>7.346361381522212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>91784.15478674178</v>
+        <v>126135.6306904049</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.02713844531927</v>
+        <v>97.927606384797</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.18246431704546</v>
+        <v>133.9888713167082</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.907506319096</v>
+        <v>121.2011614928394</v>
       </c>
       <c r="AD2" t="n">
-        <v>71027.13844531927</v>
+        <v>97927.60638479701</v>
       </c>
       <c r="AE2" t="n">
-        <v>97182.46431704545</v>
+        <v>133988.8713167082</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.025628506461485e-06</v>
+        <v>7.741432902753943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87907.50631909601</v>
+        <v>121201.1614928394</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.0108373760756</v>
+        <v>97.91130531555331</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.16016047495383</v>
+        <v>133.9665674746166</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.88733112438995</v>
+        <v>121.1809862981333</v>
       </c>
       <c r="AD3" t="n">
-        <v>71010.83737607559</v>
+        <v>97911.30531555331</v>
       </c>
       <c r="AE3" t="n">
-        <v>97160.16047495382</v>
+        <v>133966.5674746166</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041619004715686e-06</v>
+        <v>7.772183223882135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>87887.33112438995</v>
+        <v>121180.9862981333</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.2541445833227</v>
+        <v>98.37509348760969</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.229552363637</v>
+        <v>134.6011429125139</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.66378455913674</v>
+        <v>121.7549987468701</v>
       </c>
       <c r="AD2" t="n">
-        <v>73254.1445833227</v>
+        <v>98375.09348760969</v>
       </c>
       <c r="AE2" t="n">
-        <v>100229.552363637</v>
+        <v>134601.1429125139</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.083334835715453e-06</v>
+        <v>8.422283661043537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>90663.78455913674</v>
+        <v>121754.9987468701</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2207970799953</v>
+        <v>144.9515644991081</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6501777475959</v>
+        <v>198.329125359294</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6042660468228</v>
+        <v>179.4008719917349</v>
       </c>
       <c r="AD2" t="n">
-        <v>115220.7970799953</v>
+        <v>144951.5644991081</v>
       </c>
       <c r="AE2" t="n">
-        <v>157650.1777475959</v>
+        <v>198329.125359294</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.963383378848186e-06</v>
+        <v>5.206547697753339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>142604.2660468228</v>
+        <v>179400.8719917349</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.33262143319571</v>
+        <v>125.9780479977369</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.8065425401585</v>
+        <v>172.3687230296591</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.2271111118052</v>
+        <v>155.9180940247786</v>
       </c>
       <c r="AD3" t="n">
-        <v>96332.62143319572</v>
+        <v>125978.0479977369</v>
       </c>
       <c r="AE3" t="n">
-        <v>131806.5425401586</v>
+        <v>172368.7230296591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.424623296125232e-06</v>
+        <v>6.016928037520297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.241319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>119227.1111118052</v>
+        <v>155918.0940247786</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.98047739837092</v>
+        <v>122.4506995699767</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.537550016699</v>
+        <v>167.5424492951701</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.7016855940868</v>
+        <v>151.55243308179</v>
       </c>
       <c r="AD4" t="n">
-        <v>82980.47739837092</v>
+        <v>122450.6995699767</v>
       </c>
       <c r="AE4" t="n">
-        <v>113537.550016699</v>
+        <v>167542.4492951701</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.571451951937365e-06</v>
+        <v>6.274900193718329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>102701.6855940868</v>
+        <v>151552.43308179</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.60439949293638</v>
+        <v>122.0746216645422</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.0229836350975</v>
+        <v>167.0278829135686</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.2362287057468</v>
+        <v>151.0869761934499</v>
       </c>
       <c r="AD5" t="n">
-        <v>82604.39949293638</v>
+        <v>122074.6216645422</v>
       </c>
       <c r="AE5" t="n">
-        <v>113022.9836350975</v>
+        <v>167027.8829135686</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.59651425435466e-06</v>
+        <v>6.318933670413431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>102236.2287057467</v>
+        <v>151086.9761934499</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.63142461975</v>
+        <v>180.5778003633912</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.0498752683533</v>
+        <v>247.0745129873816</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.8163433129796</v>
+        <v>223.4940682391946</v>
       </c>
       <c r="AD2" t="n">
-        <v>139631.4246197501</v>
+        <v>180577.8003633912</v>
       </c>
       <c r="AE2" t="n">
-        <v>191049.8752683533</v>
+        <v>247074.5129873816</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567129071096263e-06</v>
+        <v>4.389504624561313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>172816.3433129796</v>
+        <v>223494.0682391946</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.8500971349368</v>
+        <v>146.7963833700269</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.8287726766685</v>
+        <v>200.8532879261483</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.0065178809055</v>
+        <v>181.6841320258939</v>
       </c>
       <c r="AD3" t="n">
-        <v>105850.0971349368</v>
+        <v>146796.3833700269</v>
       </c>
       <c r="AE3" t="n">
-        <v>144828.7726766685</v>
+        <v>200853.2879261483</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082244020136668e-06</v>
+        <v>5.270293781776515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>131006.5178809055</v>
+        <v>181684.1320258939</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5866051158058</v>
+        <v>132.2750740870315</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9952748041033</v>
+        <v>180.9845919302122</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.7297608579305</v>
+        <v>163.7116764899136</v>
       </c>
       <c r="AD4" t="n">
-        <v>101586.6051158058</v>
+        <v>132275.0740870315</v>
       </c>
       <c r="AE4" t="n">
-        <v>138995.2748041033</v>
+        <v>180984.5919302122</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267621821997384e-06</v>
+        <v>5.587269164012023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>125729.7608579305</v>
+        <v>163711.6764899136</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.79937699254097</v>
+        <v>129.4878459637667</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.1816663220278</v>
+        <v>177.1709834481367</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.2801178169499</v>
+        <v>160.262033448933</v>
       </c>
       <c r="AD5" t="n">
-        <v>98799.37699254097</v>
+        <v>129487.8459637667</v>
       </c>
       <c r="AE5" t="n">
-        <v>135181.6663220278</v>
+        <v>177170.9834481367</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368661501818831e-06</v>
+        <v>5.760035756402736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>122280.1178169499</v>
+        <v>160262.033448933</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.065243050316</v>
+        <v>128.7537120215417</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.1771918745724</v>
+        <v>176.1665090006813</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.3715090009706</v>
+        <v>159.3534246329537</v>
       </c>
       <c r="AD6" t="n">
-        <v>98065.243050316</v>
+        <v>128753.7120215417</v>
       </c>
       <c r="AE6" t="n">
-        <v>134177.1918745724</v>
+        <v>176166.5090006813</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387094897268764e-06</v>
+        <v>5.791554808360375e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>121371.5090009706</v>
+        <v>159353.4246329537</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.51671740011032</v>
+        <v>102.9830904125273</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.48408372480367</v>
+        <v>140.9060075956598</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.27577819039422</v>
+        <v>127.4581359935917</v>
       </c>
       <c r="AD2" t="n">
-        <v>70516.71740011033</v>
+        <v>102983.0904125273</v>
       </c>
       <c r="AE2" t="n">
-        <v>96484.08372480367</v>
+        <v>140906.0075956598</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.883135377396732e-06</v>
+        <v>8.323347648876424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>87275.77819039422</v>
+        <v>127458.1359935917</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.05555984483524</v>
+        <v>117.1050404240525</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8497458336694</v>
+        <v>160.2282826178831</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2205771085283</v>
+        <v>144.9363202066835</v>
       </c>
       <c r="AD2" t="n">
-        <v>89055.55984483524</v>
+        <v>117105.0404240525</v>
       </c>
       <c r="AE2" t="n">
-        <v>121849.7458336694</v>
+        <v>160228.2826178831</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.611197489448331e-06</v>
+        <v>6.653387745245586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>110220.5771085283</v>
+        <v>144936.3202066835</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.69303859673271</v>
+        <v>103.8277705219705</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.5665547491929</v>
+        <v>142.0617361860559</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.68230812052859</v>
+        <v>128.503563469396</v>
       </c>
       <c r="AD3" t="n">
-        <v>75693.0385967327</v>
+        <v>103827.7705219705</v>
       </c>
       <c r="AE3" t="n">
-        <v>103566.5547491929</v>
+        <v>142061.7361860559</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.868897550502573e-06</v>
+        <v>7.128182722030215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>93682.30812052859</v>
+        <v>128503.563469396</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.67375173728701</v>
+        <v>137.4434678463244</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0097803055943</v>
+        <v>188.0562162851134</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1246363606812</v>
+        <v>170.1083949414724</v>
       </c>
       <c r="AD2" t="n">
-        <v>98673.75173728701</v>
+        <v>137443.4678463244</v>
       </c>
       <c r="AE2" t="n">
-        <v>135009.7803055943</v>
+        <v>188056.2162851134</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200675854794479e-06</v>
+        <v>5.717773834769777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122124.6363606812</v>
+        <v>170108.3949414724</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.21557250624411</v>
+        <v>120.2716138829303</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.8051704500407</v>
+        <v>164.5609281236791</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.8939401474786</v>
+        <v>148.8554641063138</v>
       </c>
       <c r="AD3" t="n">
-        <v>91215.57250624412</v>
+        <v>120271.6138829303</v>
       </c>
       <c r="AE3" t="n">
-        <v>124805.1704500408</v>
+        <v>164560.9281236791</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.63025845056078e-06</v>
+        <v>6.48519179190707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>112893.9401474786</v>
+        <v>148855.4641063138</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.11626289069527</v>
+        <v>109.257555613402</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.6186053670731</v>
+        <v>149.4910076933607</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.15675952154662</v>
+        <v>135.2237957310941</v>
       </c>
       <c r="AD4" t="n">
-        <v>80116.26289069527</v>
+        <v>109257.555613402</v>
       </c>
       <c r="AE4" t="n">
-        <v>109618.6053670731</v>
+        <v>149491.0076933607</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.687915141402049e-06</v>
+        <v>6.588191262408837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>99156.75952154661</v>
+        <v>135223.7957310941</v>
       </c>
     </row>
   </sheetData>
